--- a/elsa/sprint4/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/sprint4/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="156">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -468,6 +468,30 @@
   </si>
   <si>
     <t xml:space="preserve">--&gt; Add tasks to complete each feature for this sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Ram class that inherited from Option with function override from option class.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Override the methods from Ram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Mainwin interface and create button function to connect the signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Store (ist) so that it reads in the file correctly for each type for Ram it is type letter R on the file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Ram pointer method that would instance Ram on the heap and return the pointer Ram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert single dialog from customer to custom dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a CPU class just like how we did with Ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Disk class just like how we did with Ram</t>
   </si>
 </sst>
 </file>
@@ -675,7 +699,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -864,6 +888,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1008,28 +1036,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,11 +1072,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="22013539"/>
-        <c:axId val="58047715"/>
+        <c:axId val="85521357"/>
+        <c:axId val="1474259"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22013539"/>
+        <c:axId val="85521357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,14 +1132,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58047715"/>
+        <c:crossAx val="1474259"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58047715"/>
+        <c:axId val="1474259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1204,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22013539"/>
+        <c:crossAx val="85521357"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,10 +1271,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0822345810160595"/>
-          <c:y val="0.161975370696155"/>
-          <c:w val="0.88420921077298"/>
-          <c:h val="0.635586830862026"/>
+          <c:x val="0.0822397200349956"/>
+          <c:y val="0.161995727032801"/>
+          <c:w val="0.88413948256468"/>
+          <c:h val="0.635541033052658"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1335,11 +1363,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87960543"/>
-        <c:axId val="49023214"/>
+        <c:axId val="25954193"/>
+        <c:axId val="80880323"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87960543"/>
+        <c:axId val="25954193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1397,12 +1425,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49023214"/>
+        <c:crossAx val="80880323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49023214"/>
+        <c:axId val="80880323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1468,7 +1496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87960543"/>
+        <c:crossAx val="25954193"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1603,11 +1631,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="56774889"/>
-        <c:axId val="56964421"/>
+        <c:axId val="56167927"/>
+        <c:axId val="99423969"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56774889"/>
+        <c:axId val="56167927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,14 +1691,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56964421"/>
+        <c:crossAx val="99423969"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56964421"/>
+        <c:axId val="99423969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1763,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56774889"/>
+        <c:crossAx val="56167927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,11 +1898,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24639922"/>
-        <c:axId val="3935527"/>
+        <c:axId val="43882507"/>
+        <c:axId val="60227461"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24639922"/>
+        <c:axId val="43882507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,14 +1958,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3935527"/>
+        <c:crossAx val="60227461"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3935527"/>
+        <c:axId val="60227461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2030,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24639922"/>
+        <c:crossAx val="43882507"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2137,11 +2165,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="224104"/>
-        <c:axId val="62062437"/>
+        <c:axId val="81106964"/>
+        <c:axId val="29973143"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224104"/>
+        <c:axId val="81106964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,14 +2225,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62062437"/>
+        <c:crossAx val="29973143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62062437"/>
+        <c:axId val="29973143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224104"/>
+        <c:crossAx val="81106964"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2307,9 +2335,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:colOff>1904400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2318,7 +2346,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9117720" y="266760"/>
-        <a:ext cx="5760720" cy="2864520"/>
+        <a:ext cx="5760360" cy="2864160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2342,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1772280</xdr:colOff>
+      <xdr:colOff>1771920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2353,7 +2381,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2377,9 +2405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2388,7 +2416,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2412,9 +2440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2423,7 +2451,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:ext cx="3751560" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2443,7 +2471,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1679760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2457,8 +2485,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751920" cy="1854000"/>
+        <a:off x="4086360" y="448920"/>
+        <a:ext cx="3751920" cy="1853640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2479,8 +2507,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7794,10 +7822,6 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature.&#10;&#10;Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the manual to cover this feature&quot;, or &quot;Fix the seg fault bug&quot;.&#10;&#10;Expect roughly 3 to 10 tasks per typical feature. Don't OVER plan, but also don't just write &quot;Implement the feature&quot;. Find a middle ground. :-)" promptTitle="Task Description" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18:D100" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" prompt="You may add any notes here that help understand the requirements and scope for this task" promptTitle="OPTIONAL" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F17:F100" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -7812,6 +7836,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" errorTitle="Wrong Value" operator="equal" prompt="Leave blank until task is begun.&#10;Select &quot;In Work&quot; when started (for long tasks only).&#10;Select Completed ONLY when this task is done.&#10;    Select &quot;Completed Day 1&quot; if finished on the first day, and&#10;    similarly for &quot;Completed on Day 2&quot; et. al." promptTitle="Implementation Status" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E17:E100" type="list">
       <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature.&#10;&#10;Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the manual to cover this feature&quot;, or &quot;Fix the seg fault bug&quot;.&#10;&#10;Expect roughly 3 to 10 tasks per typical feature. Don't OVER plan, but also don't just write &quot;Implement the feature&quot;. Find a middle ground. :-)" promptTitle="Task Description" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18:D100" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -7833,8 +7861,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7941,7 +7969,7 @@
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -7956,7 +7984,7 @@
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">B7-C8</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7974,7 +8002,7 @@
       </c>
       <c r="B9" s="32" t="n">
         <f aca="false">B8-C9</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7992,7 +8020,7 @@
       </c>
       <c r="B10" s="32" t="n">
         <f aca="false">B9-C10</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8010,7 +8038,7 @@
       </c>
       <c r="B11" s="32" t="n">
         <f aca="false">B10-C11</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8028,7 +8056,7 @@
       </c>
       <c r="B12" s="32" t="n">
         <f aca="false">B11-C12</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8046,7 +8074,7 @@
       </c>
       <c r="B13" s="32" t="n">
         <f aca="false">B12-C13</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8064,7 +8092,7 @@
       </c>
       <c r="B14" s="32" t="n">
         <f aca="false">B13-C14</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8110,10 +8138,12 @@
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>76</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45" t="s">
@@ -8124,59 +8154,83 @@
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>76</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>149</v>
+      </c>
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>76</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="42" t="s">
+        <v>76</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="43" t="s">
+        <v>151</v>
+      </c>
       <c r="E20" s="44"/>
       <c r="F20" s="45"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="42" t="s">
+        <v>80</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="42" t="s">
+        <v>84</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="E22" s="44"/>
       <c r="F22" s="45"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>154</v>
+      </c>
       <c r="E23" s="44"/>
       <c r="F23" s="45"/>
     </row>
@@ -8184,9 +8238,13 @@
       <c r="A24" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
     </row>
@@ -8474,9 +8532,7 @@
       <c r="A53" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B53" s="42"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="43"/>
       <c r="E53" s="44"/>
       <c r="F53" s="45"/>
     </row>
@@ -8484,9 +8540,7 @@
       <c r="A54" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B54" s="42"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="43"/>
       <c r="E54" s="44"/>
       <c r="F54" s="45"/>
     </row>
@@ -8494,9 +8548,7 @@
       <c r="A55" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B55" s="42"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="43"/>
       <c r="E55" s="44"/>
       <c r="F55" s="45"/>
     </row>
@@ -8504,7 +8556,6 @@
       <c r="A56" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B56" s="42"/>
       <c r="C56" s="1"/>
       <c r="D56" s="43"/>
       <c r="E56" s="44"/>
@@ -8514,7 +8565,6 @@
       <c r="A57" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B57" s="42"/>
       <c r="C57" s="1"/>
       <c r="D57" s="43"/>
       <c r="E57" s="44"/>
@@ -8524,7 +8574,6 @@
       <c r="A58" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B58" s="42"/>
       <c r="C58" s="1"/>
       <c r="D58" s="43"/>
       <c r="E58" s="44"/>
@@ -8534,7 +8583,6 @@
       <c r="A59" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B59" s="42"/>
       <c r="C59" s="1"/>
       <c r="D59" s="43"/>
       <c r="E59" s="44"/>
@@ -8544,7 +8592,6 @@
       <c r="A60" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B60" s="42"/>
       <c r="C60" s="1"/>
       <c r="D60" s="43"/>
       <c r="E60" s="44"/>
@@ -8953,10 +9000,6 @@
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="true" operator="equal" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " promptTitle="Task ID" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A17:A100" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature.&#10;&#10;Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the manual to cover this feature&quot;, or &quot;Fix the seg fault bug&quot;.&#10;&#10;Expect roughly 3 to 10 tasks per typical feature. Don't OVER plan, but also don't just write &quot;Implement the feature&quot;. Find a middle ground. :-)" promptTitle="Task Description" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18:D100" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8964,7 +9007,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab.&#10;&#10;For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature.&#10;&#10;For example, for a &quot;Provide Help to User&quot; feature, you might assign a Feature ID of &quot;HELP&quot; on the Product Backlog. Then, in the Sprint Backlog table, you might have 3 rows of tasks with Feature ID of Help - &quot;Write help text&quot;, &quot;Create help class to display help&quot;, and &quot;Update CLI to accept '?' command&quot;.&#10;&#10;COPY the status cell from row 1 for each row that you add, so that you can select its status with a drop-down. This will ensure that the Sprint Burn Chart at the top updates itself automatically as you complete your tasks." promptTitle="Select Feature ID from Product Backlog" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17:B100" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab.&#10;&#10;For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature.&#10;&#10;For example, for a &quot;Provide Help to User&quot; feature, you might assign a Feature ID of &quot;HELP&quot; on the Product Backlog. Then, in the Sprint Backlog table, you might have 3 rows of tasks with Feature ID of Help - &quot;Write help text&quot;, &quot;Create help class to display help&quot;, and &quot;Update CLI to accept '?' command&quot;.&#10;&#10;COPY the status cell from row 1 for each row that you add, so that you can select its status with a drop-down. This will ensure that the Sprint Burn Chart at the top updates itself automatically as you complete your tasks." promptTitle="Select Feature ID from Product Backlog" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17:B52 B61:B100" type="list">
       <formula1>'Product Backlog'!$A$24:$A$95</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8974,6 +9017,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" errorTitle="Wrong Value" operator="equal" prompt="Leave blank until task is begun.&#10;Select &quot;In Work&quot; when started (for long tasks only).&#10;Select Completed ONLY when this task is done.&#10;    Select &quot;Completed Day 1&quot; if finished on the first day, and&#10;    similarly for &quot;Completed on Day 2&quot; et. al." promptTitle="Implementation Status" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E17:E100" type="list">
       <formula1>"In Work,Completed Day 1,Completed Day 2,Completed Day 3,Completed Day 4,Completed Day 5,Completed Day 6,Completed Day 7"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature.&#10;&#10;Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the manual to cover this feature&quot;, or &quot;Fix the seg fault bug&quot;.&#10;&#10;Expect roughly 3 to 10 tasks per typical feature. Don't OVER plan, but also don't just write &quot;Implement the feature&quot;. Find a middle ground. :-)" promptTitle="Task Description" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18:D52 D56:D100" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/elsa/sprint4/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/sprint4/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="157">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -281,6 +281,9 @@
     <t xml:space="preserve">QCPU</t>
   </si>
   <si>
+    <t xml:space="preserve">Finished in Sprint 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Store and display additional CPU data</t>
   </si>
   <si>
@@ -491,7 +494,7 @@
     <t xml:space="preserve">Write a CPU class just like how we did with Ram</t>
   </si>
   <si>
-    <t xml:space="preserve">Write a Disk class just like how we did with Ram</t>
+    <t xml:space="preserve">Fix Store (ist) so that it reads in the file correctly for each type for Ram it is type letter CPU on the file</t>
   </si>
 </sst>
 </file>
@@ -964,274 +967,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="85521357"/>
-        <c:axId val="1474259"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="85521357"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1474259"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1474259"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85521357"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1363,11 +1099,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25954193"/>
-        <c:axId val="80880323"/>
+        <c:axId val="28447240"/>
+        <c:axId val="97427751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25954193"/>
+        <c:axId val="28447240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1425,12 +1161,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80880323"/>
+        <c:crossAx val="97427751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80880323"/>
+        <c:axId val="97427751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1496,7 +1232,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25954193"/>
+        <c:crossAx val="28447240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1523,7 +1259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1631,11 +1367,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="56167927"/>
-        <c:axId val="99423969"/>
+        <c:axId val="76847286"/>
+        <c:axId val="40651288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56167927"/>
+        <c:axId val="76847286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1427,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99423969"/>
+        <c:crossAx val="40651288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99423969"/>
+        <c:axId val="40651288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56167927"/>
+        <c:crossAx val="76847286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1790,7 +1526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1898,11 +1634,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43882507"/>
-        <c:axId val="60227461"/>
+        <c:axId val="24656953"/>
+        <c:axId val="92617531"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43882507"/>
+        <c:axId val="24656953"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,14 +1694,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60227461"/>
+        <c:crossAx val="92617531"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60227461"/>
+        <c:axId val="92617531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +1766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43882507"/>
+        <c:crossAx val="24656953"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2057,7 +1793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2165,11 +1901,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81106964"/>
-        <c:axId val="29973143"/>
+        <c:axId val="91909467"/>
+        <c:axId val="84798120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81106964"/>
+        <c:axId val="91909467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,14 +1961,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29973143"/>
+        <c:crossAx val="84798120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29973143"/>
+        <c:axId val="84798120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2033,274 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81106964"/>
+        <c:crossAx val="91909467"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="88960848"/>
+        <c:axId val="93116316"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88960848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93116316"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93116316"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88960848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2507,8 +2510,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2786,7 +2789,7 @@
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -3382,24 +3385,28 @@
       <c r="E40" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H40" s="23" t="s">
         <v>77</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J40" s="24" t="s">
         <v>79</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="20" t="n">
         <v>15</v>
@@ -3411,13 +3418,17 @@
       <c r="E41" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H41" s="23" t="s">
         <v>77</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" s="24" t="s">
         <v>79</v>
@@ -3426,7 +3437,7 @@
     </row>
     <row r="42" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="20" t="n">
         <v>16</v>
@@ -3438,13 +3449,17 @@
       <c r="E42" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H42" s="23" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J42" s="24" t="s">
         <v>82</v>
@@ -3453,7 +3468,7 @@
     </row>
     <row r="43" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="20" t="n">
         <v>17</v>
@@ -3465,13 +3480,17 @@
       <c r="E43" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H43" s="23" t="s">
         <v>35</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J43" s="24" t="s">
         <v>82</v>
@@ -3480,7 +3499,7 @@
     </row>
     <row r="44" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="20" t="n">
         <v>18</v>
@@ -3492,13 +3511,17 @@
       <c r="E44" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H44" s="23" t="s">
         <v>35</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J44" s="24" t="s">
         <v>82</v>
@@ -3507,7 +3530,7 @@
     </row>
     <row r="45" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="20" t="n">
         <v>19</v>
@@ -3520,23 +3543,25 @@
         <v>5</v>
       </c>
       <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="G45" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H45" s="23" t="s">
         <v>77</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="20" t="n">
         <v>20</v>
@@ -3554,18 +3579,18 @@
         <v>77</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" s="20" t="n">
         <v>21</v>
@@ -3578,23 +3603,25 @@
         <v>13</v>
       </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="G47" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H47" s="23" t="s">
         <v>39</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="20" t="n">
         <v>22</v>
@@ -3612,13 +3639,13 @@
         <v>66</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,14 +4375,14 @@
     </row>
     <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="36" t="n">
         <v>43893</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="34"/>
@@ -4364,7 +4391,7 @@
     </row>
     <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="36" t="n">
         <f aca="false">B2+21</f>
@@ -4379,10 +4406,10 @@
     </row>
     <row r="4" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -4407,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -4417,7 +4444,7 @@
     </row>
     <row r="7" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -4432,7 +4459,7 @@
     </row>
     <row r="8" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">B7-C8</f>
@@ -4450,7 +4477,7 @@
     </row>
     <row r="9" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="32" t="n">
         <f aca="false">B8-C9</f>
@@ -4468,7 +4495,7 @@
     </row>
     <row r="10" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="32" t="n">
         <f aca="false">B9-C10</f>
@@ -4486,7 +4513,7 @@
     </row>
     <row r="11" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="32" t="n">
         <f aca="false">B10-C11</f>
@@ -4504,7 +4531,7 @@
     </row>
     <row r="12" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="32" t="n">
         <f aca="false">B11-C12</f>
@@ -4522,7 +4549,7 @@
     </row>
     <row r="13" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="32" t="n">
         <f aca="false">B12-C13</f>
@@ -4540,7 +4567,7 @@
     </row>
     <row r="14" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="32" t="n">
         <f aca="false">B13-C14</f>
@@ -4568,16 +4595,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>28</v>
@@ -4595,11 +4622,11 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,11 +4638,11 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,11 +4654,11 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,7 +4670,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="45"/>
@@ -4657,7 +4684,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -4671,7 +4698,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="45"/>
@@ -4685,7 +4712,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="45"/>
@@ -4699,7 +4726,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
@@ -4713,7 +4740,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="45"/>
@@ -4727,7 +4754,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="45"/>
@@ -4741,7 +4768,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="45"/>
@@ -4755,7 +4782,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="45"/>
@@ -4769,7 +4796,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="45"/>
@@ -4783,7 +4810,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="45"/>
@@ -4797,7 +4824,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="45"/>
@@ -4811,7 +4838,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="45"/>
@@ -5575,7 +5602,7 @@
     </row>
     <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="36" t="n">
         <f aca="false">'Sprint 01 Backlog'!B3</f>
@@ -5583,7 +5610,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -5592,7 +5619,7 @@
     </row>
     <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="36" t="n">
         <f aca="false">B2+7</f>
@@ -5607,10 +5634,10 @@
     </row>
     <row r="4" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -5635,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -5645,7 +5672,7 @@
     </row>
     <row r="7" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -5660,7 +5687,7 @@
     </row>
     <row r="8" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">B7-C8</f>
@@ -5678,7 +5705,7 @@
     </row>
     <row r="9" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="32" t="n">
         <f aca="false">B8-C9</f>
@@ -5696,7 +5723,7 @@
     </row>
     <row r="10" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="32" t="n">
         <f aca="false">B9-C10</f>
@@ -5714,7 +5741,7 @@
     </row>
     <row r="11" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="32" t="n">
         <f aca="false">B10-C11</f>
@@ -5732,7 +5759,7 @@
     </row>
     <row r="12" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="32" t="n">
         <f aca="false">B11-C12</f>
@@ -5750,7 +5777,7 @@
     </row>
     <row r="13" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="32" t="n">
         <f aca="false">B12-C13</f>
@@ -5768,7 +5795,7 @@
     </row>
     <row r="14" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="32" t="n">
         <f aca="false">B13-C14</f>
@@ -5796,16 +5823,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>28</v>
@@ -5821,7 +5848,7 @@
       <c r="B17" s="42"/>
       <c r="C17" s="1"/>
       <c r="D17" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
@@ -6735,7 +6762,7 @@
     </row>
     <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="36" t="n">
         <f aca="false">'Sprint 02 Backlog'!B2+7</f>
@@ -6743,7 +6770,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -6752,7 +6779,7 @@
     </row>
     <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="36" t="n">
         <f aca="false">B2+7</f>
@@ -6767,10 +6794,10 @@
     </row>
     <row r="4" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -6795,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -6805,7 +6832,7 @@
     </row>
     <row r="7" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -6820,7 +6847,7 @@
     </row>
     <row r="8" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">B7-C8</f>
@@ -6838,7 +6865,7 @@
     </row>
     <row r="9" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="32" t="n">
         <f aca="false">B8-C9</f>
@@ -6856,7 +6883,7 @@
     </row>
     <row r="10" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="32" t="n">
         <f aca="false">B9-C10</f>
@@ -6874,7 +6901,7 @@
     </row>
     <row r="11" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="32" t="n">
         <f aca="false">B10-C11</f>
@@ -6892,7 +6919,7 @@
     </row>
     <row r="12" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="32" t="n">
         <f aca="false">B11-C12</f>
@@ -6910,7 +6937,7 @@
     </row>
     <row r="13" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="32" t="n">
         <f aca="false">B12-C13</f>
@@ -6928,7 +6955,7 @@
     </row>
     <row r="14" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="32" t="n">
         <f aca="false">B13-C14</f>
@@ -6956,16 +6983,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>28</v>
@@ -6981,7 +7008,7 @@
       <c r="B17" s="42"/>
       <c r="C17" s="1"/>
       <c r="D17" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
@@ -7861,8 +7888,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7895,7 +7922,7 @@
     </row>
     <row r="2" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="36" t="n">
         <f aca="false">'Sprint 03 Backlog'!B2+14</f>
@@ -7903,7 +7930,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -7912,7 +7939,7 @@
     </row>
     <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="36" t="n">
         <f aca="false">B2+14</f>
@@ -7927,10 +7954,10 @@
     </row>
     <row r="4" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -7955,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -7965,11 +7992,11 @@
     </row>
     <row r="7" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -7980,11 +8007,11 @@
     </row>
     <row r="8" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">B7-C8</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7998,11 +8025,11 @@
     </row>
     <row r="9" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="32" t="n">
         <f aca="false">B8-C9</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8016,11 +8043,11 @@
     </row>
     <row r="10" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="32" t="n">
         <f aca="false">B9-C10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8034,11 +8061,11 @@
     </row>
     <row r="11" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="32" t="n">
         <f aca="false">B10-C11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8052,11 +8079,11 @@
     </row>
     <row r="12" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="32" t="n">
         <f aca="false">B11-C12</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8070,11 +8097,11 @@
     </row>
     <row r="13" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="32" t="n">
         <f aca="false">B12-C13</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8088,11 +8115,11 @@
     </row>
     <row r="14" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="32" t="n">
         <f aca="false">B13-C14</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8116,16 +8143,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>28</v>
@@ -8143,11 +8170,11 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,7 +8186,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
@@ -8173,7 +8200,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="45"/>
@@ -8187,7 +8214,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="45"/>
@@ -8197,11 +8224,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -8211,11 +8238,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="45"/>
@@ -8225,46 +8252,54 @@
         <v>7</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="45"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="43"/>
+      <c r="D25" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="E25" s="44"/>
       <c r="F25" s="45"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="E26" s="44"/>
       <c r="F26" s="45"/>
     </row>
@@ -8272,7 +8307,9 @@
       <c r="A27" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="42" t="s">
+        <v>90</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>

--- a/elsa/sprint4/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/sprint4/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="168">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -476,6 +476,12 @@
     <t xml:space="preserve">Write a Ram class that inherited from Option with function override from option class.  </t>
   </si>
   <si>
+    <t xml:space="preserve">Completed Day 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETED IN SPRINT 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Override the methods from Ram.</t>
   </si>
   <si>
@@ -495,6 +501,33 @@
   </si>
   <si>
     <t xml:space="preserve">Fix Store (ist) so that it reads in the file correctly for each type for Ram it is type letter CPU on the file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed Day 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Custom Dialog for Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Custom Dialog for Disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed Day 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Custom Dialog for Desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Toll Bar with button for Quick Search, add in inventory, Change back ground color, save and create a new store short cut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented a quick search where we could search up an item and see if it inside the inventory or not. And a Color button to change let the user select background color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance a new Scroll for window then add in with vbox to make it scrollable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add a button then make a method to call to remove an item from the Option vector</t>
   </si>
 </sst>
 </file>
@@ -702,7 +735,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -891,6 +924,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -967,7 +1004,274 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="69184988"/>
+        <c:axId val="50382868"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69184988"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50382868"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50382868"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69184988"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1007,10 +1311,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0822397200349956"/>
-          <c:y val="0.161995727032801"/>
-          <c:w val="0.88413948256468"/>
-          <c:h val="0.635541033052658"/>
+          <c:x val="0.082244859696269"/>
+          <c:y val="0.162016088486677"/>
+          <c:w val="0.884069745640897"/>
+          <c:h val="0.635495223730518"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1099,11 +1403,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28447240"/>
-        <c:axId val="97427751"/>
+        <c:axId val="55352946"/>
+        <c:axId val="90253405"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28447240"/>
+        <c:axId val="55352946"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1161,12 +1465,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97427751"/>
+        <c:crossAx val="90253405"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97427751"/>
+        <c:axId val="90253405"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1232,7 +1536,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28447240"/>
+        <c:crossAx val="55352946"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1259,7 +1563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1367,11 +1671,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="76847286"/>
-        <c:axId val="40651288"/>
+        <c:axId val="88974693"/>
+        <c:axId val="25397269"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76847286"/>
+        <c:axId val="88974693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,14 +1731,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40651288"/>
+        <c:crossAx val="25397269"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40651288"/>
+        <c:axId val="25397269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1803,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76847286"/>
+        <c:crossAx val="88974693"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,7 +1830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1634,11 +1938,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24656953"/>
-        <c:axId val="92617531"/>
+        <c:axId val="81307872"/>
+        <c:axId val="47870476"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24656953"/>
+        <c:axId val="81307872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,14 +1998,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92617531"/>
+        <c:crossAx val="47870476"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92617531"/>
+        <c:axId val="47870476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +2070,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24656953"/>
+        <c:crossAx val="81307872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1793,7 +2097,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1901,11 +2205,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91909467"/>
-        <c:axId val="84798120"/>
+        <c:axId val="31829600"/>
+        <c:axId val="35615844"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91909467"/>
+        <c:axId val="31829600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +2265,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84798120"/>
+        <c:crossAx val="35615844"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84798120"/>
+        <c:axId val="35615844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,274 +2337,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91909467"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="88960848"/>
-        <c:axId val="93116316"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="88960848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93116316"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93116316"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88960848"/>
+        <c:crossAx val="31829600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2338,9 +2375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1904040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2349,7 +2386,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9117720" y="266760"/>
-        <a:ext cx="5760360" cy="2864160"/>
+        <a:ext cx="5760000" cy="2863800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2373,9 +2410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1771920</xdr:colOff>
+      <xdr:colOff>1771560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2384,7 +2421,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2408,9 +2445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2419,7 +2456,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2443,9 +2480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2454,7 +2491,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4086360" y="448560"/>
-        <a:ext cx="3751560" cy="1853640"/>
+        <a:ext cx="3751200" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2474,7 +2511,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1679760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2488,8 +2525,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4086360" y="448920"/>
-        <a:ext cx="3751920" cy="1853640"/>
+        <a:off x="4086360" y="449280"/>
+        <a:ext cx="3751920" cy="1853280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2510,8 +2547,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7888,8 +7925,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7996,7 +8033,7 @@
       </c>
       <c r="B7" s="32" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -8011,11 +8048,11 @@
       </c>
       <c r="B8" s="32" t="n">
         <f aca="false">B7-C8</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -8029,11 +8066,11 @@
       </c>
       <c r="B9" s="32" t="n">
         <f aca="false">B8-C9</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -8047,11 +8084,11 @@
       </c>
       <c r="B10" s="32" t="n">
         <f aca="false">B9-C10</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -8065,7 +8102,7 @@
       </c>
       <c r="B11" s="32" t="n">
         <f aca="false">B10-C11</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8083,7 +8120,7 @@
       </c>
       <c r="B12" s="32" t="n">
         <f aca="false">B11-C12</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8101,7 +8138,7 @@
       </c>
       <c r="B13" s="32" t="n">
         <f aca="false">B12-C13</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8119,7 +8156,7 @@
       </c>
       <c r="B14" s="32" t="n">
         <f aca="false">B13-C14</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14" s="32" t="n">
         <f aca="false">COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -8161,7 +8198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
@@ -8172,9 +8209,11 @@
       <c r="D17" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="44" t="s">
+        <v>150</v>
+      </c>
       <c r="F17" s="45" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8186,10 +8225,14 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -8200,10 +8243,14 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -8214,12 +8261,16 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>5</v>
       </c>
@@ -8228,12 +8279,16 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>6</v>
       </c>
@@ -8242,10 +8297,14 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+        <v>156</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -8256,10 +8315,14 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
+        <v>157</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -8269,11 +8332,15 @@
         <v>84</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
+      <c r="D24" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -8283,11 +8350,15 @@
         <v>88</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
+      <c r="D25" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -8297,13 +8368,17 @@
         <v>88</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>11</v>
       </c>
@@ -8311,59 +8386,103 @@
         <v>90</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
+      <c r="D28" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="43"/>
+      <c r="D29" s="43" t="s">
+        <v>163</v>
+      </c>
       <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="D32" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
